--- a/src/predicciones/xgboost/producto_62.xlsx
+++ b/src/predicciones/xgboost/producto_62.xlsx
@@ -14,18 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>valor_real</t>
   </si>
   <si>
     <t>valor_prediccion</t>
   </si>
+  <si>
+    <t>Fecha</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -78,9 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -377,961 +386,1318 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B119"/>
+  <dimension ref="A1:C119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>1</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2">
+        <v>44933</v>
       </c>
       <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>1.05542266368866</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>2</v>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2">
+        <v>44944</v>
       </c>
       <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
         <v>1.65787672996521</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>1</v>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2">
+        <v>44945</v>
       </c>
       <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
         <v>1.266077995300293</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>2</v>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2">
+        <v>44947</v>
       </c>
       <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
         <v>1.979090094566345</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>1</v>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2">
+        <v>44949</v>
       </c>
       <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
         <v>1.569891929626465</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>1</v>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2">
+        <v>44952</v>
       </c>
       <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
         <v>1.68409264087677</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>1</v>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2">
+        <v>44954</v>
       </c>
       <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
         <v>1.787296295166016</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>1</v>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2">
+        <v>44955</v>
       </c>
       <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
         <v>1.815555453300476</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>1</v>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2">
+        <v>44958</v>
       </c>
       <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
         <v>1.810611963272095</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>1</v>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2">
+        <v>44960</v>
       </c>
       <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
         <v>2.037728309631348</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
-        <v>2</v>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2">
+        <v>44965</v>
       </c>
       <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
         <v>1.554211497306824</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
-        <v>1</v>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2">
+        <v>44969</v>
       </c>
       <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
         <v>1.396697521209717</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
-        <v>1</v>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2">
+        <v>44973</v>
       </c>
       <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
         <v>1.41444718837738</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
-        <v>2</v>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2">
+        <v>44975</v>
       </c>
       <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
         <v>1.370236992835999</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
-        <v>1</v>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2">
+        <v>44977</v>
       </c>
       <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
         <v>1.540587067604065</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
-        <v>2</v>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2">
+        <v>44978</v>
       </c>
       <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
         <v>1.283621191978455</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
-        <v>1</v>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2">
+        <v>44980</v>
       </c>
       <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
         <v>1.823074221611023</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
-        <v>1</v>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2">
+        <v>44985</v>
       </c>
       <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
         <v>1.26107132434845</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
-        <v>2</v>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2">
+        <v>44992</v>
       </c>
       <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
         <v>1.58975613117218</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
-        <v>1</v>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2">
+        <v>44998</v>
       </c>
       <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
         <v>1.168311834335327</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
-        <v>1</v>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2">
+        <v>45004</v>
       </c>
       <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
         <v>1.431366443634033</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23">
-        <v>1</v>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2">
+        <v>45006</v>
       </c>
       <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
         <v>1.436865091323853</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24">
-        <v>2</v>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2">
+        <v>45007</v>
       </c>
       <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
         <v>1.094627857208252</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25">
-        <v>1</v>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2">
+        <v>45010</v>
       </c>
       <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
         <v>1.021848678588867</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26">
-        <v>1</v>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2">
+        <v>45014</v>
       </c>
       <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
         <v>1.646971702575684</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27">
-        <v>1</v>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2">
+        <v>45015</v>
       </c>
       <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
         <v>1.507055759429932</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28">
-        <v>1</v>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2">
+        <v>45017</v>
       </c>
       <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
         <v>1.138747453689575</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29">
-        <v>1</v>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2">
+        <v>45020</v>
       </c>
       <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
         <v>0.9114825129508972</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30">
-        <v>2</v>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2">
+        <v>45021</v>
       </c>
       <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
         <v>0.9816062450408936</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31">
-        <v>1</v>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2">
+        <v>45025</v>
       </c>
       <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
         <v>0.9992691874504089</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32">
-        <v>1</v>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2">
+        <v>45030</v>
       </c>
       <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
         <v>1.7508385181427</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33">
-        <v>1</v>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2">
+        <v>45031</v>
       </c>
       <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
         <v>1.483789443969727</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34">
-        <v>1</v>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2">
+        <v>45032</v>
       </c>
       <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
         <v>1.143176674842834</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35">
-        <v>2</v>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2">
+        <v>45033</v>
       </c>
       <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
         <v>1.158089995384216</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36">
-        <v>1</v>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2">
+        <v>45039</v>
       </c>
       <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
         <v>1.296130776405334</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37">
-        <v>1</v>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2">
+        <v>45040</v>
       </c>
       <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
         <v>1.211679697036743</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
-      <c r="A38">
-        <v>1</v>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2">
+        <v>45041</v>
       </c>
       <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
         <v>1.240177273750305</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39">
-        <v>1</v>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2">
+        <v>45044</v>
       </c>
       <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
         <v>1.508760213851929</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="A40">
-        <v>1</v>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2">
+        <v>45051</v>
       </c>
       <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
         <v>1.215718746185303</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41">
-        <v>1</v>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2">
+        <v>45052</v>
       </c>
       <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
         <v>1.019648790359497</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42">
-        <v>2</v>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2">
+        <v>45054</v>
       </c>
       <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42">
         <v>0.9818978309631348</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
-      <c r="A43">
-        <v>1</v>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2">
+        <v>45060</v>
       </c>
       <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
         <v>1.208709359169006</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
-      <c r="A44">
-        <v>1</v>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2">
+        <v>45061</v>
       </c>
       <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
         <v>1.28884744644165</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
-      <c r="A45">
-        <v>1</v>
+    <row r="45" spans="1:3">
+      <c r="A45" s="2">
+        <v>45066</v>
       </c>
       <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
         <v>1.016931891441345</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
-      <c r="A46">
-        <v>1</v>
+    <row r="46" spans="1:3">
+      <c r="A46" s="2">
+        <v>45072</v>
       </c>
       <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
         <v>1.124842643737793</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
-      <c r="A47">
-        <v>1</v>
+    <row r="47" spans="1:3">
+      <c r="A47" s="2">
+        <v>45080</v>
       </c>
       <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
         <v>1.095536589622498</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
-      <c r="A48">
-        <v>1</v>
+    <row r="48" spans="1:3">
+      <c r="A48" s="2">
+        <v>45082</v>
       </c>
       <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
         <v>0.9625901579856873</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49">
-        <v>1</v>
+    <row r="49" spans="1:3">
+      <c r="A49" s="2">
+        <v>45092</v>
       </c>
       <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
         <v>1.192094445228577</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="A50">
-        <v>1</v>
+    <row r="50" spans="1:3">
+      <c r="A50" s="2">
+        <v>45094</v>
       </c>
       <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
         <v>1.187092065811157</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
-      <c r="A51">
-        <v>1</v>
+    <row r="51" spans="1:3">
+      <c r="A51" s="2">
+        <v>45102</v>
       </c>
       <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
         <v>1.005921125411987</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
-      <c r="A52">
-        <v>1</v>
+    <row r="52" spans="1:3">
+      <c r="A52" s="2">
+        <v>45105</v>
       </c>
       <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
         <v>1.027529001235962</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
-      <c r="A53">
-        <v>1</v>
+    <row r="53" spans="1:3">
+      <c r="A53" s="2">
+        <v>45106</v>
       </c>
       <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
         <v>0.9060215950012207</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
-      <c r="A54">
-        <v>1</v>
+    <row r="54" spans="1:3">
+      <c r="A54" s="2">
+        <v>45109</v>
       </c>
       <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
         <v>1.13047194480896</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
-      <c r="A55">
-        <v>1</v>
+    <row r="55" spans="1:3">
+      <c r="A55" s="2">
+        <v>45113</v>
       </c>
       <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
         <v>1.262932419776917</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
-      <c r="A56">
-        <v>1</v>
+    <row r="56" spans="1:3">
+      <c r="A56" s="2">
+        <v>45117</v>
       </c>
       <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
         <v>1.166149735450745</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
-      <c r="A57">
-        <v>2</v>
+    <row r="57" spans="1:3">
+      <c r="A57" s="2">
+        <v>45124</v>
       </c>
       <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57">
         <v>1.380265355110168</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
-      <c r="A58">
-        <v>2</v>
+    <row r="58" spans="1:3">
+      <c r="A58" s="2">
+        <v>45125</v>
       </c>
       <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58">
         <v>0.9891990423202515</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
-      <c r="A59">
-        <v>2</v>
+    <row r="59" spans="1:3">
+      <c r="A59" s="2">
+        <v>45127</v>
       </c>
       <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59">
         <v>0.9533119797706604</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
-      <c r="A60">
-        <v>1</v>
+    <row r="60" spans="1:3">
+      <c r="A60" s="2">
+        <v>45129</v>
       </c>
       <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
         <v>2.10294508934021</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
-      <c r="A61">
-        <v>1</v>
+    <row r="61" spans="1:3">
+      <c r="A61" s="2">
+        <v>45132</v>
       </c>
       <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
         <v>1.762915849685669</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
-      <c r="A62">
-        <v>1</v>
+    <row r="62" spans="1:3">
+      <c r="A62" s="2">
+        <v>45144</v>
       </c>
       <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
         <v>1.920732140541077</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
-      <c r="A63">
-        <v>2</v>
+    <row r="63" spans="1:3">
+      <c r="A63" s="2">
+        <v>45151</v>
       </c>
       <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63">
         <v>1.76347279548645</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
-      <c r="A64">
-        <v>2</v>
+    <row r="64" spans="1:3">
+      <c r="A64" s="2">
+        <v>45159</v>
       </c>
       <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64">
         <v>0.9492368102073669</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
-      <c r="A65">
-        <v>1</v>
+    <row r="65" spans="1:3">
+      <c r="A65" s="2">
+        <v>45162</v>
       </c>
       <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
         <v>1.701894879341125</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
-      <c r="A66">
-        <v>2</v>
+    <row r="66" spans="1:3">
+      <c r="A66" s="2">
+        <v>45164</v>
       </c>
       <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66">
         <v>1.965758562088013</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
-      <c r="A67">
-        <v>2</v>
+    <row r="67" spans="1:3">
+      <c r="A67" s="2">
+        <v>45165</v>
       </c>
       <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67">
         <v>1.535881996154785</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
-      <c r="A68">
-        <v>1</v>
+    <row r="68" spans="1:3">
+      <c r="A68" s="2">
+        <v>45166</v>
       </c>
       <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
         <v>0.8806488513946533</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
-      <c r="A69">
-        <v>1</v>
+    <row r="69" spans="1:3">
+      <c r="A69" s="2">
+        <v>45167</v>
       </c>
       <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
         <v>1.039794325828552</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
-      <c r="A70">
-        <v>1</v>
+    <row r="70" spans="1:3">
+      <c r="A70" s="2">
+        <v>45172</v>
       </c>
       <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
         <v>1.259714603424072</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
-      <c r="A71">
-        <v>1</v>
+    <row r="71" spans="1:3">
+      <c r="A71" s="2">
+        <v>45179</v>
       </c>
       <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
         <v>1.191386699676514</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
-      <c r="A72">
-        <v>1</v>
+    <row r="72" spans="1:3">
+      <c r="A72" s="2">
+        <v>45180</v>
       </c>
       <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
         <v>0.9996258020401001</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
-      <c r="A73">
-        <v>1</v>
+    <row r="73" spans="1:3">
+      <c r="A73" s="2">
+        <v>45181</v>
       </c>
       <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73">
         <v>1.008634448051453</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
-      <c r="A74">
-        <v>2</v>
+    <row r="74" spans="1:3">
+      <c r="A74" s="2">
+        <v>45186</v>
       </c>
       <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74">
         <v>1.643842816352844</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
-      <c r="A75">
-        <v>2</v>
+    <row r="75" spans="1:3">
+      <c r="A75" s="2">
+        <v>45190</v>
       </c>
       <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75">
         <v>0.9244675636291504</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
-      <c r="A76">
-        <v>1</v>
+    <row r="76" spans="1:3">
+      <c r="A76" s="2">
+        <v>45192</v>
       </c>
       <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
         <v>1.344229936599731</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
-      <c r="A77">
-        <v>1</v>
+    <row r="77" spans="1:3">
+      <c r="A77" s="2">
+        <v>45193</v>
       </c>
       <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77">
         <v>1.303800582885742</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
-      <c r="A78">
-        <v>2</v>
+    <row r="78" spans="1:3">
+      <c r="A78" s="2">
+        <v>45197</v>
       </c>
       <c r="B78">
+        <v>2</v>
+      </c>
+      <c r="C78">
         <v>1.365947365760803</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
-      <c r="A79">
-        <v>1</v>
+    <row r="79" spans="1:3">
+      <c r="A79" s="2">
+        <v>45203</v>
       </c>
       <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
         <v>1.04405152797699</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
-      <c r="A80">
-        <v>1</v>
+    <row r="80" spans="1:3">
+      <c r="A80" s="2">
+        <v>45210</v>
       </c>
       <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
         <v>1.152946591377258</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
-      <c r="A81">
-        <v>1</v>
+    <row r="81" spans="1:3">
+      <c r="A81" s="2">
+        <v>45211</v>
       </c>
       <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81">
         <v>0.9217996001243591</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
-      <c r="A82">
-        <v>1</v>
+    <row r="82" spans="1:3">
+      <c r="A82" s="2">
+        <v>45212</v>
       </c>
       <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
         <v>1.035617470741272</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
-      <c r="A83">
-        <v>1</v>
+    <row r="83" spans="1:3">
+      <c r="A83" s="2">
+        <v>45214</v>
       </c>
       <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83">
         <v>1.177814126014709</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
-      <c r="A84">
-        <v>1</v>
+    <row r="84" spans="1:3">
+      <c r="A84" s="2">
+        <v>45219</v>
       </c>
       <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
         <v>1.219613194465637</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
-      <c r="A85">
-        <v>1</v>
+    <row r="85" spans="1:3">
+      <c r="A85" s="2">
+        <v>45221</v>
       </c>
       <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85">
         <v>1.18779456615448</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
-      <c r="A86">
-        <v>2</v>
+    <row r="86" spans="1:3">
+      <c r="A86" s="2">
+        <v>45222</v>
       </c>
       <c r="B86">
+        <v>2</v>
+      </c>
+      <c r="C86">
         <v>1.150887012481689</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
-      <c r="A87">
-        <v>1</v>
+    <row r="87" spans="1:3">
+      <c r="A87" s="2">
+        <v>45223</v>
       </c>
       <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87">
         <v>0.9227921962738037</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
-      <c r="A88">
-        <v>1</v>
+    <row r="88" spans="1:3">
+      <c r="A88" s="2">
+        <v>45224</v>
       </c>
       <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88">
         <v>1.606374263763428</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
-      <c r="A89">
-        <v>2</v>
+    <row r="89" spans="1:3">
+      <c r="A89" s="2">
+        <v>45225</v>
       </c>
       <c r="B89">
+        <v>2</v>
+      </c>
+      <c r="C89">
         <v>0.9335910677909851</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
-      <c r="A90">
-        <v>1</v>
+    <row r="90" spans="1:3">
+      <c r="A90" s="2">
+        <v>45228</v>
       </c>
       <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90">
         <v>1.123511672019958</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
-      <c r="A91">
-        <v>1</v>
+    <row r="91" spans="1:3">
+      <c r="A91" s="2">
+        <v>45232</v>
       </c>
       <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91">
         <v>1.355786919593811</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
-      <c r="A92">
-        <v>1</v>
+    <row r="92" spans="1:3">
+      <c r="A92" s="2">
+        <v>45238</v>
       </c>
       <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92">
         <v>1.419264793395996</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
-      <c r="A93">
-        <v>2</v>
+    <row r="93" spans="1:3">
+      <c r="A93" s="2">
+        <v>45240</v>
       </c>
       <c r="B93">
+        <v>2</v>
+      </c>
+      <c r="C93">
         <v>1.091054320335388</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
-      <c r="A94">
-        <v>1</v>
+    <row r="94" spans="1:3">
+      <c r="A94" s="2">
+        <v>45242</v>
       </c>
       <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94">
         <v>0.9739010334014893</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
-      <c r="A95">
-        <v>1</v>
+    <row r="95" spans="1:3">
+      <c r="A95" s="2">
+        <v>45244</v>
       </c>
       <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95">
         <v>1.142793893814087</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
-      <c r="A96">
-        <v>1</v>
+    <row r="96" spans="1:3">
+      <c r="A96" s="2">
+        <v>45249</v>
       </c>
       <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96">
         <v>1.457163095474243</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
-      <c r="A97">
-        <v>1</v>
+    <row r="97" spans="1:3">
+      <c r="A97" s="2">
+        <v>45251</v>
       </c>
       <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97">
         <v>1.236509919166565</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
-      <c r="A98">
-        <v>2</v>
+    <row r="98" spans="1:3">
+      <c r="A98" s="2">
+        <v>45252</v>
       </c>
       <c r="B98">
+        <v>2</v>
+      </c>
+      <c r="C98">
         <v>1.052631855010986</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
-      <c r="A99">
-        <v>2</v>
+    <row r="99" spans="1:3">
+      <c r="A99" s="2">
+        <v>45254</v>
       </c>
       <c r="B99">
+        <v>2</v>
+      </c>
+      <c r="C99">
         <v>1.464301466941833</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
-      <c r="A100">
-        <v>2</v>
+    <row r="100" spans="1:3">
+      <c r="A100" s="2">
+        <v>45256</v>
       </c>
       <c r="B100">
+        <v>2</v>
+      </c>
+      <c r="C100">
         <v>1.606528639793396</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
-      <c r="A101">
-        <v>1</v>
+    <row r="101" spans="1:3">
+      <c r="A101" s="2">
+        <v>45260</v>
       </c>
       <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101">
         <v>0.7580572962760925</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
-      <c r="A102">
-        <v>1</v>
+    <row r="102" spans="1:3">
+      <c r="A102" s="2">
+        <v>45270</v>
       </c>
       <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102">
         <v>1.861971020698547</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
-      <c r="A103">
-        <v>1</v>
+    <row r="103" spans="1:3">
+      <c r="A103" s="2">
+        <v>45271</v>
       </c>
       <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103">
         <v>0.8687536120414734</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
-      <c r="A104">
-        <v>1</v>
+    <row r="104" spans="1:3">
+      <c r="A104" s="2">
+        <v>45275</v>
       </c>
       <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104">
         <v>1.428045511245728</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
-      <c r="A105">
-        <v>2</v>
+    <row r="105" spans="1:3">
+      <c r="A105" s="2">
+        <v>45276</v>
       </c>
       <c r="B105">
+        <v>2</v>
+      </c>
+      <c r="C105">
         <v>1.376887559890747</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
-      <c r="A106">
-        <v>2</v>
+    <row r="106" spans="1:3">
+      <c r="A106" s="2">
+        <v>45277</v>
       </c>
       <c r="B106">
+        <v>2</v>
+      </c>
+      <c r="C106">
         <v>2.046856880187988</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
-      <c r="A107">
-        <v>1</v>
+    <row r="107" spans="1:3">
+      <c r="A107" s="2">
+        <v>45291</v>
       </c>
       <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107">
         <v>1.146548748016357</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
-      <c r="A108">
-        <v>2</v>
+    <row r="108" spans="1:3">
+      <c r="A108" s="2">
+        <v>45298</v>
       </c>
       <c r="B108">
+        <v>2</v>
+      </c>
+      <c r="C108">
         <v>1.138296484947205</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
-      <c r="A109">
-        <v>2</v>
+    <row r="109" spans="1:3">
+      <c r="A109" s="2">
+        <v>45300</v>
       </c>
       <c r="B109">
+        <v>2</v>
+      </c>
+      <c r="C109">
         <v>1.836622357368469</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
-      <c r="A110">
-        <v>2</v>
+    <row r="110" spans="1:3">
+      <c r="A110" s="2">
+        <v>45305</v>
       </c>
       <c r="B110">
+        <v>2</v>
+      </c>
+      <c r="C110">
         <v>1.19995653629303</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
-      <c r="A111">
-        <v>1</v>
+    <row r="111" spans="1:3">
+      <c r="A111" s="2">
+        <v>45310</v>
       </c>
       <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111">
         <v>1.221956491470337</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
-      <c r="A112">
-        <v>1</v>
+    <row r="112" spans="1:3">
+      <c r="A112" s="2">
+        <v>45311</v>
       </c>
       <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112">
         <v>1.258092045783997</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
-      <c r="A113">
-        <v>1</v>
+    <row r="113" spans="1:3">
+      <c r="A113" s="2">
+        <v>45314</v>
       </c>
       <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113">
         <v>1.737997174263</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
-      <c r="A114">
-        <v>1</v>
+    <row r="114" spans="1:3">
+      <c r="A114" s="2">
+        <v>45316</v>
       </c>
       <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114">
         <v>1.809441208839417</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
-      <c r="A115">
-        <v>1</v>
+    <row r="115" spans="1:3">
+      <c r="A115" s="2">
+        <v>45323</v>
       </c>
       <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115">
         <v>1.765472769737244</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
-      <c r="A116">
-        <v>1</v>
+    <row r="116" spans="1:3">
+      <c r="A116" s="2">
+        <v>45325</v>
       </c>
       <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116">
         <v>1.969043254852295</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
-      <c r="A117">
-        <v>1</v>
+    <row r="117" spans="1:3">
+      <c r="A117" s="2">
+        <v>45329</v>
       </c>
       <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117">
         <v>1.952354431152344</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
-      <c r="A118">
-        <v>2</v>
+    <row r="118" spans="1:3">
+      <c r="A118" s="2">
+        <v>45334</v>
       </c>
       <c r="B118">
+        <v>2</v>
+      </c>
+      <c r="C118">
         <v>1.270237326622009</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
-      <c r="A119">
-        <v>2</v>
+    <row r="119" spans="1:3">
+      <c r="A119" s="2">
+        <v>45348</v>
       </c>
       <c r="B119">
+        <v>2</v>
+      </c>
+      <c r="C119">
         <v>1.083357453346252</v>
       </c>
     </row>
